--- a/data/travel_cities.xlsx
+++ b/data/travel_cities.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/home/dnguyen-td.github.io/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC495FF3-C3FB-AE46-A73D-528146823EDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6CE8E34-2CED-3B49-A2EF-575DA7D27E7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="16960" yWindow="4020" windowWidth="33540" windowHeight="16940" xr2:uid="{480BA5CF-8559-4837-BE6C-7BD53D43F432}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="39">
   <si>
     <t>city</t>
   </si>
@@ -144,6 +144,12 @@
   </si>
   <si>
     <t>Castellón</t>
+  </si>
+  <si>
+    <t>Bristol</t>
+  </si>
+  <si>
+    <t>UK</t>
   </si>
 </sst>
 </file>
@@ -495,10 +501,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D2C686F-A71D-41A1-818F-C86D94FEA7E9}">
-  <dimension ref="A1:D27"/>
+  <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="107" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I32" sqref="I32"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -885,6 +891,20 @@
         <v>108.1</v>
       </c>
     </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>37</v>
+      </c>
+      <c r="B28" t="s">
+        <v>38</v>
+      </c>
+      <c r="C28">
+        <v>51.454500000000003</v>
+      </c>
+      <c r="D28">
+        <v>2.5878999999999999</v>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D25">
     <sortCondition ref="B2:B25"/>
